--- a/assets/document/format_users.xlsx
+++ b/assets/document/format_users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROBBY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sim-event\assets\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA63F9A-2350-4B55-A7FF-54FA6212A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEEA97-3D92-47F2-A909-0099C062A9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4DF4AE95-17B5-4C0B-8520-F12455FB25CA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>no</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t>Spanyol</t>
+  </si>
+  <si>
+    <t>Adina Everett</t>
+  </si>
+  <si>
+    <t>Macy Eastwood</t>
+  </si>
+  <si>
+    <t>Liam Webster</t>
+  </si>
+  <si>
+    <t>Ally Harvey</t>
+  </si>
+  <si>
+    <t>Liv Benfield</t>
+  </si>
+  <si>
+    <t>Maribel Ellis</t>
+  </si>
+  <si>
+    <t>Harvey Crawley</t>
+  </si>
+  <si>
+    <t>Daniel Nelson</t>
+  </si>
+  <si>
+    <t>Alan Downing</t>
+  </si>
+  <si>
+    <t>Logan Anderson</t>
   </si>
 </sst>
 </file>
@@ -482,12 +512,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -526,8 +557,8 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -549,8 +580,8 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -573,7 +604,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -596,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -619,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -642,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -665,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -688,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -711,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -734,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
